--- a/Business Analytics ClassWork.xlsx
+++ b/Business Analytics ClassWork.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techo India August 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE88209-688D-443B-898A-5A8C141FDFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21831CE0-828C-4D26-9724-0F9A8B55F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7B7943CE-2954-48CA-8038-ED1C81B0D344}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scatter Plot" sheetId="1" r:id="rId1"/>
+    <sheet name="Simple Regression" sheetId="2" r:id="rId2"/>
+    <sheet name="Multiple Regression" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>Student</t>
   </si>
@@ -83,12 +84,108 @@
   <si>
     <t>r =</t>
   </si>
+  <si>
+    <t>y' = a + bx</t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>d^2</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>r^2 =</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +201,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -395,11 +500,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,13 +619,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +830,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$10</c:f>
+              <c:f>'Scatter Plot'!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -677,7 +860,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$10</c:f>
+              <c:f>'Scatter Plot'!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -994,6 +1177,731 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Attendance Vs. Final Exam Marks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.28591668349366889"/>
+                  <c:y val="-0.25325995453734523"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$F$12:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$G$12:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-194A-4EE7-90BD-E9161F6B0A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DataPoint-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77.139303482587067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-194A-4EE7-90BD-E9161F6B0A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>DataPoint-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>66.273631840796014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-194A-4EE7-90BD-E9161F6B0A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DataPoint-3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Regression'!$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62.651741293532339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-194A-4EE7-90BD-E9161F6B0A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1374883696"/>
+        <c:axId val="1133751712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1374883696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Students' Attendance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1133751712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1133751712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Final Exam Marks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1374883696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="00B050"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1034,7 +1942,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1601,8 +3065,8 @@
       <xdr:rowOff>186983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>16998</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
@@ -1621,8 +3085,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4802358" y="186983"/>
-              <a:ext cx="5577840" cy="1337017"/>
+              <a:off x="5648178" y="186983"/>
+              <a:ext cx="4882662" cy="1338189"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2235,8 +3699,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4802358" y="186983"/>
-              <a:ext cx="5577840" cy="1337017"/>
+              <a:off x="5648178" y="186983"/>
+              <a:ext cx="4882662" cy="1338189"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2612,6 +4076,1368 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>362827</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426132</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFA1CE2-B4D4-741D-CE19-765B29E48469}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10695547" y="879231"/>
+              <a:ext cx="3370385" cy="766689"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="35A984"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1" kern="1200" baseline="30000">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−(∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)(∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1" kern="1200" baseline="30000">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1" kern="1200" baseline="30000">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFA1CE2-B4D4-741D-CE19-765B29E48469}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10695547" y="879231"/>
+              <a:ext cx="3370385" cy="766689"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="35A984"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎=((∑𝑦)(∑𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0" kern="1200" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−(∑𝑥)(∑𝑥𝑦))/(𝑛(∑𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0" kern="1200" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−(∑𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0" kern="1200" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366346</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>154290</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44937</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1206FED7-BC7C-3AA9-68BD-3F03A7E0EEA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10699066" y="187569"/>
+              <a:ext cx="2485424" cy="604128"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" kern="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−(∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)(∑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1" kern="1200" baseline="30000">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>∑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1" kern="1200" baseline="30000">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1206FED7-BC7C-3AA9-68BD-3F03A7E0EEA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10699066" y="187569"/>
+              <a:ext cx="2485424" cy="604128"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑏=(𝑛(∑𝑥𝑦)−(∑𝑥)(∑𝑦))/(𝑛(∑𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0" kern="1200" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−(∑𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0" kern="1200" baseline="30000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41031</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>592015</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62EF0207-559B-625F-E08A-A6E5A2A4DC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3019,16 +5845,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D4E0C7-40B4-41FB-BE67-D4C50A1B9381}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3038,17 +5872,17 @@
       <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +5905,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3094,7 +5928,7 @@
         <v>7396</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -3117,7 +5951,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -3140,7 +5974,7 @@
         <v>5476</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
@@ -3163,7 +5997,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +6020,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +6043,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10">
         <f>SUM(C3:C9)</f>
         <v>57</v>
@@ -3231,7 +6065,27 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3239,8 +6093,25 @@
         <f>COUNTA(B3:B9)</f>
         <v>7</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="15">
+        <v>82</v>
+      </c>
+      <c r="H12" s="15">
+        <f>$C$18+$C$19*F12</f>
+        <v>80.761194029850742</v>
+      </c>
+      <c r="I12" s="5">
+        <f>(G12-H12)^2</f>
+        <v>1.5346402316774443</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
@@ -3248,8 +6119,25 @@
         <f>(C12*E10-C10*D10)/SQRT((C12*F10-C10^2)*(C12*G10-D10^2))</f>
         <v>-0.94421517068791783</v>
       </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>86</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" ref="H13:H18" si="4">$C$18+$C$19*F13</f>
+        <v>95.24875621890547</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I18" si="5">(G13-H13)^2</f>
+        <v>85.539491596742607</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
@@ -3257,8 +6145,25 @@
         <f>CORREL(C3:C9,D3:D9)</f>
         <v>-0.94421517068791805</v>
       </c>
+      <c r="E14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16">
+        <v>43</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="4"/>
+        <v>48.164179104477604</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>26.66874582312311</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
@@ -3266,21 +6171,790 @@
         <f>CORREL(D3:D9,C3:C9)</f>
         <v>-0.94421517068791805</v>
       </c>
+      <c r="E15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="16">
+        <v>74</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="4"/>
+        <v>69.895522388059703</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>16.846736466919122</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f>(D10*F10-C10*E10)/(C12*F10-C10^2)</f>
+        <v>102.49253731343283</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" s="16">
+        <v>58</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="4"/>
+        <v>59.02985074626865</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0605925595900956</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <f>(C12*E10-C10*D10)/(C12*F10-C10^2)</f>
+        <v>-3.6218905472636815</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="16">
+        <v>90</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="4"/>
+        <v>84.383084577114431</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>31.549738867849769</v>
+      </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f>INTERCEPT(D3:D9,C3:C9)</f>
+        <v>102.49253731343283</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="17">
+        <v>78</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="4"/>
+        <v>73.517412935323378</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="5"/>
+        <v>20.093586792406175</v>
+      </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f>SLOPE(D3:D9,C3:C9)</f>
+        <v>-3.621890547263682</v>
+      </c>
+      <c r="I19" s="30">
+        <f>SUM(I12:I18)</f>
+        <v>183.29353233830832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <f>C15^2</f>
+        <v>0.89154228855721418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="12">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5">
+        <f>$C$16+$C$17*E22</f>
+        <v>77.139303482587067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:F24" si="6">$C$16+$C$17*E23</f>
+        <v>66.273631840796014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="3">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="6"/>
+        <v>62.651741293532339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="35">
+        <v>-0.94421517068791805</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0.94421517068791783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F32" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="34">
+        <v>0.89154228855721385</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F33" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0.86985074626865655</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F34" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="34">
+        <v>6.054643380717124</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="34">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34">
+        <v>1506.7064676616915</v>
+      </c>
+      <c r="I39" s="34">
+        <v>1506.7064676616915</v>
+      </c>
+      <c r="J39" s="34">
+        <v>41.100917431192663</v>
+      </c>
+      <c r="K39" s="34">
+        <v>1.3697467655579901E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F40" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="34">
+        <v>5</v>
+      </c>
+      <c r="H40" s="34">
+        <v>183.29353233830844</v>
+      </c>
+      <c r="I40" s="34">
+        <v>36.658706467661688</v>
+      </c>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="35">
+        <v>6</v>
+      </c>
+      <c r="H41" s="35">
+        <v>1690</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F44" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="34">
+        <v>102.49253731343283</v>
+      </c>
+      <c r="H44" s="34">
+        <v>5.1380677404490225</v>
+      </c>
+      <c r="I44" s="34">
+        <v>19.947681208359445</v>
+      </c>
+      <c r="J44" s="34">
+        <v>5.8508415074810417E-6</v>
+      </c>
+      <c r="K44" s="34">
+        <v>89.284713709565651</v>
+      </c>
+      <c r="L44" s="34">
+        <v>115.70036091730002</v>
+      </c>
+      <c r="M44" s="34">
+        <v>89.284713709565651</v>
+      </c>
+      <c r="N44" s="34">
+        <v>115.70036091730002</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="35">
+        <v>-3.6218905472636815</v>
+      </c>
+      <c r="H45" s="35">
+        <v>0.56494941577112823</v>
+      </c>
+      <c r="I45" s="35">
+        <v>-6.4109997216653083</v>
+      </c>
+      <c r="J45" s="35">
+        <v>1.3697467655579901E-3</v>
+      </c>
+      <c r="K45" s="35">
+        <v>-5.0741392534982923</v>
+      </c>
+      <c r="L45" s="35">
+        <v>-2.1696418410290708</v>
+      </c>
+      <c r="M45" s="35">
+        <v>-5.0741392534982923</v>
+      </c>
+      <c r="N45" s="35">
+        <v>-2.1696418410290708</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C032C-28C8-4BC8-80F9-F34887F7F3EE}">
+  <dimension ref="B2:O21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="40">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="38">
+        <v>2.7</v>
+      </c>
+      <c r="D5" s="38">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>570</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="38">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>525</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0.98928820282730667</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="38">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>670</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0.97869114825328229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8" s="39">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>490</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0.95738229650656459</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="34">
+        <v>14.009087214635695</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="40">
+        <v>25</v>
+      </c>
+      <c r="E12" s="33">
+        <f>$H$19+$H$20*C12+$H$21*D12</f>
+        <v>581.43462523174719</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D13" s="38">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E14" si="0">$H$19+$H$20*C13+$H$21*D13</f>
+        <v>549.37362055266181</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="39">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>552.3686766134017</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="34">
+        <v>2</v>
+      </c>
+      <c r="I14" s="34">
+        <v>18027.49095082546</v>
+      </c>
+      <c r="J14" s="34">
+        <v>9013.7454754127302</v>
+      </c>
+      <c r="K14" s="34">
+        <v>45.928854350588743</v>
+      </c>
+      <c r="L14" s="34">
+        <v>2.1308851746717622E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2</v>
+      </c>
+      <c r="I15" s="34">
+        <v>392.50904917453863</v>
+      </c>
+      <c r="J15" s="34">
+        <v>196.25452458726932</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="35">
+        <v>4</v>
+      </c>
+      <c r="I16" s="35">
+        <v>18420</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="34">
+        <v>-44.81018804626126</v>
+      </c>
+      <c r="I19" s="34">
+        <v>69.246866630890381</v>
+      </c>
+      <c r="J19" s="34">
+        <v>-0.64710780756499753</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0.58391574508017841</v>
+      </c>
+      <c r="L19" s="34">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="M19" s="34">
+        <v>253.13503168973631</v>
+      </c>
+      <c r="N19" s="34">
+        <v>-342.75540778225883</v>
+      </c>
+      <c r="O19" s="34">
+        <v>253.13503168973631</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="34">
+        <v>87.640151849563026</v>
+      </c>
+      <c r="I20" s="34">
+        <v>15.237186664924886</v>
+      </c>
+      <c r="J20" s="34">
+        <v>5.7517279125618073</v>
+      </c>
+      <c r="K20" s="34">
+        <v>2.8922600815111749E-2</v>
+      </c>
+      <c r="L20" s="34">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="M20" s="34">
+        <v>153.20047464710422</v>
+      </c>
+      <c r="N20" s="34">
+        <v>22.079829052021836</v>
+      </c>
+      <c r="O20" s="34">
+        <v>153.20047464710422</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="35">
+        <v>14.532974309172776</v>
+      </c>
+      <c r="I21" s="35">
+        <v>2.9137375361504319</v>
+      </c>
+      <c r="J21" s="35">
+        <v>4.9877431061870565</v>
+      </c>
+      <c r="K21" s="35">
+        <v>3.7924876930238542E-2</v>
+      </c>
+      <c r="L21" s="35">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="M21" s="35">
+        <v>27.069775072863909</v>
+      </c>
+      <c r="N21" s="35">
+        <v>1.9961735454816427</v>
+      </c>
+      <c r="O21" s="35">
+        <v>27.069775072863909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Business Analytics ClassWork.xlsx
+++ b/Business Analytics ClassWork.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Techo India August 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21831CE0-828C-4D26-9724-0F9A8B55F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9360E-4676-442E-A318-44D551439FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7B7943CE-2954-48CA-8038-ED1C81B0D344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7B7943CE-2954-48CA-8038-ED1C81B0D344}"/>
   </bookViews>
   <sheets>
     <sheet name="Scatter Plot" sheetId="1" r:id="rId1"/>
     <sheet name="Simple Regression" sheetId="2" r:id="rId2"/>
     <sheet name="Multiple Regression" sheetId="3" r:id="rId3"/>
+    <sheet name="K-Means" sheetId="5" r:id="rId4"/>
+    <sheet name="Hierarchical Clustering " sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
   <si>
     <t>Student</t>
   </si>
@@ -180,12 +182,129 @@
   <si>
     <t>x2</t>
   </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Var-1</t>
+  </si>
+  <si>
+    <t>Var-2</t>
+  </si>
+  <si>
+    <t>From C1-1</t>
+  </si>
+  <si>
+    <t>From C2-1</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>From C1-2</t>
+  </si>
+  <si>
+    <t>From C2-2</t>
+  </si>
+  <si>
+    <t>From C1-3</t>
+  </si>
+  <si>
+    <t>From C2-3</t>
+  </si>
+  <si>
+    <t>C1-1</t>
+  </si>
+  <si>
+    <t>C2-1</t>
+  </si>
+  <si>
+    <t>New Data Point</t>
+  </si>
+  <si>
+    <t>From C1</t>
+  </si>
+  <si>
+    <t>From C2</t>
+  </si>
+  <si>
+    <t>Cluster No.</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering Example</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>MI/TO</t>
+  </si>
+  <si>
+    <t>TO/MI</t>
+  </si>
+  <si>
+    <t>NA/RM</t>
+  </si>
+  <si>
+    <t>BA/(NA/RM)</t>
+  </si>
+  <si>
+    <t>FI/(TO/MI)</t>
+  </si>
+  <si>
+    <t>BA: Buenos Aires (Argentina), British Airways (airline), Bachelor of Arts (degree)</t>
+  </si>
+  <si>
+    <t>NA: North America (continent), National Archives (organization), North Atlantic (ocean)</t>
+  </si>
+  <si>
+    <t>RM: Rome (Italy), Royal Mail (postal service in the UK), Records Management (industry term)</t>
+  </si>
+  <si>
+    <t>FI: Finland (country), Financial Institution (industry term), Federated States of Micronesia (country)</t>
+  </si>
+  <si>
+    <t>TO: Toronto (Canada), Time Out (magazine), Take Out (food service)</t>
+  </si>
+  <si>
+    <t>MI: Michigan (state in the USA), Military Intelligence (industry term), Migraine (health condition)</t>
+  </si>
+  <si>
+    <t>pt1(x1, y1)</t>
+  </si>
+  <si>
+    <t>pt2(x2, y2)</t>
+  </si>
+  <si>
+    <t>Euclidean Dist = ((x1-x2)^2+(y1-y2)^2)^0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,16 +328,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -553,11 +744,286 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,11 +1088,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -635,13 +1101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,11 +1117,370 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1902,6 +2725,953 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DataSet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F01-49AC-850A-C025A620E4EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2017195536"/>
+        <c:axId val="2065752720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2017195536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2065752720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2065752720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017195536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Means Implementation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAB8-41E6-AB00-48081AFC4D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAB8-41E6-AB00-48081AFC4D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Centroid-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAB8-41E6-AB00-48081AFC4D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Centroid-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAB8-41E6-AB00-48081AFC4D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>NewDataPoint</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'K-Means'!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'K-Means'!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FAB8-41E6-AB00-48081AFC4D07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2076725808"/>
+        <c:axId val="1519357184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2076725808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1519357184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1519357184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2076725808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1982,6 +3752,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2499,6 +4349,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3070,8 +5952,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>46892</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Rectangle 1">
@@ -3685,7 +6567,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Rectangle 1">
@@ -4091,8 +6973,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 1">
@@ -4245,7 +7127,7 @@
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4256,7 +7138,7 @@
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4265,11 +7147,11 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                          <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4279,11 +7161,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4295,7 +7177,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4306,7 +7188,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4317,11 +7199,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4333,7 +7215,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4344,7 +7226,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4356,7 +7238,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4369,7 +7251,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4380,7 +7262,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4391,7 +7273,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4402,7 +7284,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4413,7 +7295,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4426,7 +7308,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4435,11 +7317,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4451,7 +7333,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4462,7 +7344,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4474,7 +7356,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4487,7 +7369,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4496,11 +7378,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4512,7 +7394,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4523,7 +7405,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4537,7 +7419,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4560,7 +7442,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 1">
@@ -4799,8 +7681,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>44937</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 5">
@@ -4939,7 +7821,7 @@
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4950,7 +7832,7 @@
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4959,11 +7841,11 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1800" kern="1200">
+                          <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4975,7 +7857,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4984,11 +7866,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5000,7 +7882,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5011,7 +7893,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5024,7 +7906,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5035,7 +7917,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5046,7 +7928,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5057,7 +7939,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5068,7 +7950,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5081,7 +7963,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5090,11 +7972,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5106,7 +7988,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5117,7 +7999,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5129,7 +8011,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5142,7 +8024,7 @@
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5151,11 +8033,11 @@
                         <m:d>
                           <m:dPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1800" kern="1200">
+                              <a:rPr lang="en-US" sz="1800" i="1" kern="1200">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5167,7 +8049,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5178,7 +8060,7 @@
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5192,7 +8074,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5215,7 +8097,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 5">
@@ -5441,6 +8323,173 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51709</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC8D4D8-9B80-0B5B-ABAF-AFE0969D4E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527957</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DB5788-9211-15CD-6C05-8726934438B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2529ECC1-2546-453E-A7C7-B1B0C389F106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1291589" y="541020"/>
+          <a:ext cx="6600825" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2BA56FC-A0A6-4B8A-9797-71331ED0AE92}" name="Table13" displayName="Table13" ref="M3:S9" headerRowDxfId="10" totalsRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3242EE7B-1637-4895-A027-6C8367CF184E}" name="Distance" totalsRowLabel="Total" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{628C4C32-7616-4580-B3FB-9EDF38847F33}" name="BA" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D5B5FF4B-10CE-4F62-9181-D736761E317D}" name="FI" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D4CD944D-4C5A-473F-B1D7-7C0215E00989}" name="MI" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6DF33315-1ECB-4479-BB97-D6A47C19EA89}" name="NA" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{69C01C77-70FF-469D-AFAB-9458EC0538A4}" name="RM" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{7E1E0215-8781-4025-960E-AE79B4ADFCA5}" name="TO" totalsRowFunction="sum" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5743,7 +8792,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5847,8 +8896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D4E0C7-40B4-41FB-BE67-D4C50A1B9381}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6338,11 +9387,11 @@
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
@@ -6350,66 +9399,65 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="34" t="s">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>-0.94421517068791805</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>1</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="37"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="34" t="s">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31">
         <v>0.94421517068791783</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="34" t="s">
+      <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32">
         <v>0.89154228855721385</v>
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="34" t="s">
+      <c r="F33" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33">
         <v>0.86985074626865655</v>
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="34" t="s">
+      <c r="F34" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34">
         <v>6.054643380717124</v>
       </c>
     </row>
     <row r="35" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="33">
         <v>7</v>
       </c>
     </row>
@@ -6419,156 +9467,154 @@
       </c>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F38" s="36"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="34"/>
+      <c r="G38" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="J38" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F39" s="34" t="s">
+      <c r="F39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39">
         <v>1506.7064676616915</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39">
         <v>1506.7064676616915</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39">
         <v>41.100917431192663</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39">
         <v>1.3697467655579901E-3</v>
       </c>
     </row>
     <row r="40" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F40" s="34" t="s">
+      <c r="F40" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40">
         <v>5</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40">
         <v>183.29353233830844</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40">
         <v>36.658706467661688</v>
       </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="33">
         <v>6</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="33">
         <v>1690</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
     </row>
     <row r="42" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F43" s="36"/>
-      <c r="G43" s="36" t="s">
+      <c r="F43" s="34"/>
+      <c r="G43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="36" t="s">
+      <c r="J43" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="36" t="s">
+      <c r="L43" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="36" t="s">
+      <c r="M43" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N43" s="36" t="s">
+      <c r="N43" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F44" s="34" t="s">
+      <c r="F44" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44">
         <v>102.49253731343283</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44">
         <v>5.1380677404490225</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44">
         <v>19.947681208359445</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44">
         <v>5.8508415074810417E-6</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44">
         <v>89.284713709565651</v>
       </c>
-      <c r="L44" s="34">
+      <c r="L44">
         <v>115.70036091730002</v>
       </c>
-      <c r="M44" s="34">
+      <c r="M44">
         <v>89.284713709565651</v>
       </c>
-      <c r="N44" s="34">
+      <c r="N44">
         <v>115.70036091730002</v>
       </c>
     </row>
     <row r="45" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="33">
         <v>-3.6218905472636815</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="33">
         <v>0.56494941577112823</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="33">
         <v>-6.4109997216653083</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="33">
         <v>1.3697467655579901E-3</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="33">
         <v>-5.0741392534982923</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="33">
         <v>-2.1696418410290708</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="33">
         <v>-5.0741392534982923</v>
       </c>
-      <c r="N45" s="35">
+      <c r="N45" s="33">
         <v>-2.1696418410290708</v>
       </c>
     </row>
@@ -6583,7 +9629,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6621,10 +9667,10 @@
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>3.2</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>22</v>
       </c>
       <c r="E4" s="5">
@@ -6635,37 +9681,37 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>2.7</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>570</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>2.5</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>525</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6">
         <v>0.98928820282730667</v>
       </c>
     </row>
@@ -6673,19 +9719,19 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <v>3.4</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>670</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7">
         <v>0.97869114825328229</v>
       </c>
     </row>
@@ -6693,35 +9739,35 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="37">
         <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>490</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8">
         <v>0.95738229650656459</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G9" s="34" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9">
         <v>14.009087214635695</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="33">
         <v>5</v>
       </c>
     </row>
@@ -6740,10 +9786,10 @@
       <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="38">
         <v>25</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="26">
         <f>$H$19+$H$20*C12+$H$21*D12</f>
         <v>581.43462523174719</v>
       </c>
@@ -6755,27 +9801,27 @@
       <c r="C13" s="1">
         <v>2.8</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>24</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ref="E13:E14" si="0">$H$19+$H$20*C13+$H$21*D13</f>
         <v>549.37362055266181</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6783,178 +9829,1355 @@
       <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>23</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>552.3686766134017</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14">
         <v>18027.49095082546</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14">
         <v>9013.7454754127302</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14">
         <v>45.928854350588743</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14">
         <v>2.1308851746717622E-2</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="34" t="s">
+      <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15">
         <v>392.50904917453863</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15">
         <v>196.25452458726932</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>4</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="33">
         <v>18420</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G18" s="36"/>
-      <c r="H18" s="36" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G19" s="34" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19">
         <v>-44.81018804626126</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19">
         <v>69.246866630890381</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19">
         <v>-0.64710780756499753</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19">
         <v>0.58391574508017841</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19">
         <v>-342.75540778225883</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19">
         <v>253.13503168973631</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19">
         <v>-342.75540778225883</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19">
         <v>253.13503168973631</v>
       </c>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G20" s="34" t="s">
+      <c r="G20" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20">
         <v>87.640151849563026</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20">
         <v>15.237186664924886</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20">
         <v>5.7517279125618073</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20">
         <v>2.8922600815111749E-2</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20">
         <v>22.079829052021836</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20">
         <v>153.20047464710422</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20">
         <v>22.079829052021836</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20">
         <v>153.20047464710422</v>
       </c>
     </row>
     <row r="21" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>14.532974309172776</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>2.9137375361504319</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>4.9877431061870565</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>3.7924876930238542E-2</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="33">
         <v>1.9961735454816427</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="33">
         <v>27.069775072863909</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="33">
         <v>1.9961735454816427</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="33">
         <v>27.069775072863909</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608CA887-0655-4A9A-B187-0C53C8903A15}">
+  <dimension ref="B1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="H2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="K2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="67"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1</v>
+      </c>
+      <c r="E4" s="109">
+        <f>SQRT((C4-$C$12)^2+(D4-$D$12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="110">
+        <f>SQRT((C4-$C$13)^2+(D4-$D$13)^2)</f>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="G4" s="63" t="str">
+        <f>IF(E4&lt;=F4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="H4" s="109">
+        <f>SQRT((C4-$C$14)^2+(D4-$D$14)^2)</f>
+        <v>1.5723301886761007</v>
+      </c>
+      <c r="I4" s="110">
+        <f>SQRT((C4-$C$15)^2+(D4-$D$15)^2)</f>
+        <v>5.3764532919016421</v>
+      </c>
+      <c r="J4" s="63" t="str">
+        <f>IF(H4&lt;=I4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="K4" s="109">
+        <f>SQRT((C4-$C$16)^2+(D4-$D$16)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="L4" s="110">
+        <f>SQRT((C4-$C$17)^2+(D4-$D$17)^2)</f>
+        <v>5.0219518117958879</v>
+      </c>
+      <c r="M4" s="45" t="str">
+        <f>IF(K4&lt;=L4,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="42">
+        <v>2</v>
+      </c>
+      <c r="C5" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="44">
+        <v>2</v>
+      </c>
+      <c r="E5" s="111">
+        <f t="shared" ref="E5:E10" si="0">SQRT((C5-$C$12)^2+(D5-$D$12)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="F5" s="112">
+        <f t="shared" ref="F5:F10" si="1">SQRT((C5-$C$13)^2+(D5-$D$13)^2)</f>
+        <v>6.103277807866851</v>
+      </c>
+      <c r="G5" s="64" t="str">
+        <f t="shared" ref="G5:G10" si="2">IF(E5&lt;=F5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="H5" s="111">
+        <f t="shared" ref="H5:H10" si="3">SQRT((C5-$C$14)^2+(D5-$D$14)^2)</f>
+        <v>0.47140452079103173</v>
+      </c>
+      <c r="I5" s="112">
+        <f t="shared" ref="I5:I10" si="4">SQRT((C5-$C$15)^2+(D5-$D$15)^2)</f>
+        <v>4.2756578441217679</v>
+      </c>
+      <c r="J5" s="64" t="str">
+        <f t="shared" ref="J5:J10" si="5">IF(H5&lt;=I5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+      <c r="K5" s="111">
+        <f t="shared" ref="K5:K10" si="6">SQRT((C5-$C$16)^2+(D5-$D$16)^2)</f>
+        <v>0.55901699437494745</v>
+      </c>
+      <c r="L5" s="112">
+        <f t="shared" ref="L5:L10" si="7">SQRT((C5-$C$17)^2+(D5-$D$17)^2)</f>
+        <v>3.9204591567825315</v>
+      </c>
+      <c r="M5" s="46" t="str">
+        <f t="shared" ref="M5:M10" si="8">IF(K5&lt;=L5,"C1","C2")</f>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="42">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43">
+        <v>3</v>
+      </c>
+      <c r="D6" s="44">
+        <v>4</v>
+      </c>
+      <c r="E6" s="111">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F6" s="112">
+        <f t="shared" si="1"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G6" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+      <c r="H6" s="113">
+        <f t="shared" si="3"/>
+        <v>2.0344259359556172</v>
+      </c>
+      <c r="I6" s="114">
+        <f t="shared" si="4"/>
+        <v>1.7765838004439869</v>
+      </c>
+      <c r="J6" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K6" s="113">
+        <f t="shared" si="6"/>
+        <v>3.0516389039334255</v>
+      </c>
+      <c r="L6" s="114">
+        <f t="shared" si="7"/>
+        <v>1.4212670403551892</v>
+      </c>
+      <c r="M6" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="42">
+        <v>4</v>
+      </c>
+      <c r="C7" s="43">
+        <v>5</v>
+      </c>
+      <c r="D7" s="44">
+        <v>7</v>
+      </c>
+      <c r="E7" s="113">
+        <f t="shared" si="0"/>
+        <v>7.2111025509279782</v>
+      </c>
+      <c r="F7" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H7" s="113">
+        <f t="shared" si="3"/>
+        <v>5.6396414385628768</v>
+      </c>
+      <c r="I7" s="114">
+        <f t="shared" si="4"/>
+        <v>1.845602882529175</v>
+      </c>
+      <c r="J7" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K7" s="113">
+        <f t="shared" si="6"/>
+        <v>6.656763477847174</v>
+      </c>
+      <c r="L7" s="114">
+        <f t="shared" si="7"/>
+        <v>2.1954498400100153</v>
+      </c>
+      <c r="M7" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="42">
+        <v>5</v>
+      </c>
+      <c r="C8" s="43">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="44">
+        <v>5</v>
+      </c>
+      <c r="E8" s="113">
+        <f t="shared" si="0"/>
+        <v>4.7169905660283016</v>
+      </c>
+      <c r="F8" s="114">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H8" s="113">
+        <f t="shared" si="3"/>
+        <v>3.1446603773522015</v>
+      </c>
+      <c r="I8" s="114">
+        <f t="shared" si="4"/>
+        <v>0.72886898685566259</v>
+      </c>
+      <c r="J8" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K8" s="113">
+        <f t="shared" si="6"/>
+        <v>4.1608292442733097</v>
+      </c>
+      <c r="L8" s="114">
+        <f t="shared" si="7"/>
+        <v>0.41231056256176585</v>
+      </c>
+      <c r="M8" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="42">
+        <v>6</v>
+      </c>
+      <c r="C9" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="44">
+        <v>5</v>
+      </c>
+      <c r="E9" s="113">
+        <f t="shared" si="0"/>
+        <v>5.315072906367325</v>
+      </c>
+      <c r="F9" s="114">
+        <f t="shared" si="1"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="G9" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H9" s="113">
+        <f t="shared" si="3"/>
+        <v>3.7712361663282534</v>
+      </c>
+      <c r="I9" s="114">
+        <f t="shared" si="4"/>
+        <v>0.5303300858899106</v>
+      </c>
+      <c r="J9" s="64" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K9" s="113">
+        <f t="shared" si="6"/>
+        <v>4.7762432936356998</v>
+      </c>
+      <c r="L9" s="114">
+        <f t="shared" si="7"/>
+        <v>0.60827625302982202</v>
+      </c>
+      <c r="M9" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="48">
+        <v>7</v>
+      </c>
+      <c r="C10" s="49">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="50">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="115">
+        <f t="shared" si="0"/>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="F10" s="116">
+        <f t="shared" si="1"/>
+        <v>2.9154759474226504</v>
+      </c>
+      <c r="G10" s="65" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+      <c r="H10" s="115">
+        <f t="shared" si="3"/>
+        <v>2.733536577809454</v>
+      </c>
+      <c r="I10" s="116">
+        <f t="shared" si="4"/>
+        <v>1.0752906583803283</v>
+      </c>
+      <c r="J10" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+      <c r="K10" s="115">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="L10" s="116">
+        <f t="shared" si="7"/>
+        <v>0.72111025509279758</v>
+      </c>
+      <c r="M10" s="47" t="str">
+        <f t="shared" si="8"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="52">
+        <v>1</v>
+      </c>
+      <c r="D12" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="49">
+        <v>5</v>
+      </c>
+      <c r="D13" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="52">
+        <f>AVERAGE(C4:C6)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="D14" s="53">
+        <f>AVERAGE(D4:D6)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="49">
+        <f>AVERAGE(C7:C10)</f>
+        <v>4.125</v>
+      </c>
+      <c r="D15" s="55">
+        <f>AVERAGE(D7:D10)</f>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="43">
+        <f>AVERAGE(C4:C5)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="56">
+        <f>AVERAGE(D4:D5)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="49">
+        <f>AVERAGE(C6:C10)</f>
+        <v>3.9</v>
+      </c>
+      <c r="D17" s="55">
+        <f>AVERAGE(D6:D10)</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="68"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="60">
+        <v>3</v>
+      </c>
+      <c r="C21" s="61">
+        <v>3</v>
+      </c>
+      <c r="D21" s="61">
+        <f>SQRT((C16-B21)^2+(C21-D16)^2)</f>
+        <v>2.3048861143232218</v>
+      </c>
+      <c r="E21" s="61">
+        <f>SQRT((B21-C17)^2+(C21-D17)^2)</f>
+        <v>2.2847319317591719</v>
+      </c>
+      <c r="F21" s="62" t="str">
+        <f>IF(D21&lt;=E21,"C1","C2")</f>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C14:D15 C16:D17" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67451EB0-BE4F-468C-B5AA-F0380EC94ADA}">
+  <dimension ref="B1:S31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="M3" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="M4" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="77">
+        <v>0</v>
+      </c>
+      <c r="O4" s="38">
+        <v>662</v>
+      </c>
+      <c r="P4" s="38">
+        <v>877</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>255</v>
+      </c>
+      <c r="R4" s="38">
+        <v>412</v>
+      </c>
+      <c r="S4" s="15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="M5" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="79">
+        <v>662</v>
+      </c>
+      <c r="O5" s="36">
+        <v>0</v>
+      </c>
+      <c r="P5" s="36">
+        <v>295</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>468</v>
+      </c>
+      <c r="R5" s="36">
+        <v>268</v>
+      </c>
+      <c r="S5" s="16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="M6" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="79">
+        <v>877</v>
+      </c>
+      <c r="O6" s="36">
+        <v>295</v>
+      </c>
+      <c r="P6" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>754</v>
+      </c>
+      <c r="R6" s="36">
+        <v>564</v>
+      </c>
+      <c r="S6" s="80">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="M7" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="79">
+        <v>255</v>
+      </c>
+      <c r="O7" s="36">
+        <v>468</v>
+      </c>
+      <c r="P7" s="36">
+        <v>754</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>0</v>
+      </c>
+      <c r="R7" s="36">
+        <v>219</v>
+      </c>
+      <c r="S7" s="16">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="M8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="79">
+        <v>412</v>
+      </c>
+      <c r="O8" s="36">
+        <v>268</v>
+      </c>
+      <c r="P8" s="36">
+        <v>564</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>219</v>
+      </c>
+      <c r="R8" s="36">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="M9" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="82">
+        <v>996</v>
+      </c>
+      <c r="O9" s="83">
+        <v>400</v>
+      </c>
+      <c r="P9" s="84">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="83">
+        <v>869</v>
+      </c>
+      <c r="R9" s="83">
+        <v>669</v>
+      </c>
+      <c r="S9" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="M12" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="M13" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="91">
+        <v>0</v>
+      </c>
+      <c r="O13" s="92">
+        <v>662</v>
+      </c>
+      <c r="P13" s="92">
+        <v>877</v>
+      </c>
+      <c r="Q13" s="92">
+        <v>255</v>
+      </c>
+      <c r="R13" s="93">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="M14" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="79">
+        <v>662</v>
+      </c>
+      <c r="O14" s="36">
+        <v>0</v>
+      </c>
+      <c r="P14" s="36">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>468</v>
+      </c>
+      <c r="R14" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="M15" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="95">
+        <v>877</v>
+      </c>
+      <c r="O15" s="96">
+        <v>295</v>
+      </c>
+      <c r="P15" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="96">
+        <v>754</v>
+      </c>
+      <c r="R15" s="97">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="M16" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="79">
+        <v>255</v>
+      </c>
+      <c r="O16" s="36">
+        <v>468</v>
+      </c>
+      <c r="P16" s="36">
+        <v>754</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>0</v>
+      </c>
+      <c r="R16" s="98">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="M17" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="100">
+        <v>412</v>
+      </c>
+      <c r="O17" s="101">
+        <v>268</v>
+      </c>
+      <c r="P17" s="101">
+        <v>564</v>
+      </c>
+      <c r="Q17" s="102">
+        <v>219</v>
+      </c>
+      <c r="R17" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="91">
+        <v>0</v>
+      </c>
+      <c r="E21" s="92">
+        <v>662</v>
+      </c>
+      <c r="F21" s="92">
+        <v>877</v>
+      </c>
+      <c r="G21" s="104">
+        <v>255</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="91">
+        <v>0</v>
+      </c>
+      <c r="K21" s="92">
+        <v>268</v>
+      </c>
+      <c r="L21" s="92">
+        <v>564</v>
+      </c>
+      <c r="N21" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="91">
+        <v>0</v>
+      </c>
+      <c r="P21" s="92">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="79">
+        <v>662</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0</v>
+      </c>
+      <c r="F22" s="36">
+        <v>295</v>
+      </c>
+      <c r="G22" s="36">
+        <v>268</v>
+      </c>
+      <c r="I22" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="79">
+        <v>268</v>
+      </c>
+      <c r="K22" s="36">
+        <v>0</v>
+      </c>
+      <c r="L22" s="105">
+        <v>295</v>
+      </c>
+      <c r="N22" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="79">
+        <v>268</v>
+      </c>
+      <c r="P22" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="95">
+        <v>877</v>
+      </c>
+      <c r="E23" s="96">
+        <v>295</v>
+      </c>
+      <c r="F23" s="96">
+        <v>0</v>
+      </c>
+      <c r="G23" s="96">
+        <v>564</v>
+      </c>
+      <c r="I23" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="95">
+        <v>564</v>
+      </c>
+      <c r="K23" s="106">
+        <v>295</v>
+      </c>
+      <c r="L23" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="107">
+        <v>255</v>
+      </c>
+      <c r="E24" s="36">
+        <v>268</v>
+      </c>
+      <c r="F24" s="36">
+        <v>564</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D26" s="108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>